--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>Размер файла</t>
   </si>
@@ -199,13 +199,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,38 +530,38 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="10">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9">
+      <c r="G1" s="11"/>
+      <c r="H1" s="10">
         <v>3</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9">
+      <c r="I1" s="11"/>
+      <c r="J1" s="10">
         <v>4</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="9">
+      <c r="K1" s="11"/>
+      <c r="L1" s="10">
         <v>5</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="9">
+      <c r="M1" s="11"/>
+      <c r="N1" s="10">
         <v>6</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9">
+      <c r="O1" s="11"/>
+      <c r="P1" s="10">
         <v>7</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="9">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="10">
         <v>8</v>
       </c>
-      <c r="S1" s="10"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -816,7 +816,7 @@
       <c r="J8">
         <v>4995</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>3533</v>
       </c>
       <c r="M8">
@@ -919,7 +919,7 @@
       <c r="J14">
         <v>3568</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>3307</v>
       </c>
       <c r="N14">
@@ -964,7 +964,7 @@
       <c r="J16">
         <v>3649</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <v>3467</v>
       </c>
       <c r="M16">
@@ -982,7 +982,7 @@
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <v>3437</v>
       </c>
       <c r="M17">
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L18" s="11"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1058,6 +1058,12 @@
       <c r="C25">
         <v>16</v>
       </c>
+      <c r="L25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -1193,7 +1199,7 @@
       <c r="C35">
         <v>63</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="9">
         <v>89332</v>
       </c>
       <c r="M35">
@@ -1250,7 +1256,7 @@
       <c r="C39">
         <v>90</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="9">
         <v>88701</v>
       </c>
     </row>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,16 +1297,28 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>$B$43/C44</f>
-        <v>170994059.40594059</v>
+        <f>B43/C44</f>
+        <v>265698461.53846154</v>
       </c>
       <c r="C44">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L44">
-        <v>382552</v>
-      </c>
-      <c r="M44">
+        <v>383358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>$B$43/C45</f>
+        <v>172704000</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="L45">
+        <v>383991</v>
+      </c>
+      <c r="M45">
         <v>6331</v>
       </c>
     </row>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Все" sheetId="1" r:id="rId1"/>
+    <sheet name="compress" sheetId="1" r:id="rId1"/>
+    <sheet name="decompress" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Размер файла</t>
   </si>
@@ -56,13 +57,52 @@
   </si>
   <si>
     <t>32 ГБ</t>
+  </si>
+  <si>
+    <t>Общее время</t>
+  </si>
+  <si>
+    <t>в архиве</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>ожидание</t>
+  </si>
+  <si>
+    <t>обработка</t>
+  </si>
+  <si>
+    <t>decompress</t>
+  </si>
+  <si>
+    <t>сек</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>мин</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>файла</t>
+  </si>
+  <si>
+    <t>архива</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +115,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -179,11 +228,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +299,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1114,7 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
         <v>10794000000</v>
       </c>
       <c r="C21">
@@ -1006,7 +1124,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="12">
         <f>$B$21/C22</f>
         <v>899500000</v>
       </c>
@@ -1021,7 +1139,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="12">
         <f t="shared" ref="B23:B41" si="1">$B$21/C23</f>
         <v>771000000</v>
       </c>
@@ -1036,7 +1154,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="12">
         <f t="shared" si="1"/>
         <v>719600000</v>
       </c>
@@ -1051,7 +1169,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="12">
         <f t="shared" si="1"/>
         <v>674625000</v>
       </c>
@@ -1066,7 +1184,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="12">
         <f t="shared" si="1"/>
         <v>634941176.47058821</v>
       </c>
@@ -1081,7 +1199,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="12">
         <f t="shared" si="1"/>
         <v>599666666.66666663</v>
       </c>
@@ -1090,7 +1208,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="12">
         <f t="shared" si="1"/>
         <v>568105263.15789473</v>
       </c>
@@ -1099,7 +1217,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="12">
         <f t="shared" si="1"/>
         <v>539700000</v>
       </c>
@@ -1111,7 +1229,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="12">
         <f t="shared" si="1"/>
         <v>431760000</v>
       </c>
@@ -1120,7 +1238,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="12">
         <f t="shared" si="1"/>
         <v>359800000</v>
       </c>
@@ -1135,7 +1253,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="13">
         <f t="shared" si="1"/>
         <v>269850000</v>
       </c>
@@ -1147,7 +1265,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="B33" s="12">
         <f t="shared" si="1"/>
         <v>215880000</v>
       </c>
@@ -1177,7 +1295,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" s="12">
         <f t="shared" si="1"/>
         <v>179900000</v>
       </c>
@@ -1192,7 +1310,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="12">
         <f t="shared" si="1"/>
         <v>171333333.33333334</v>
       </c>
@@ -1213,7 +1331,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="12">
         <f t="shared" si="1"/>
         <v>166061538.46153846</v>
       </c>
@@ -1225,7 +1343,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="B37" s="12">
         <f t="shared" si="1"/>
         <v>154200000</v>
       </c>
@@ -1237,7 +1355,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="B38" s="12">
         <f t="shared" si="1"/>
         <v>134925000</v>
       </c>
@@ -1249,7 +1367,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="B39" s="12">
         <f t="shared" si="1"/>
         <v>119933333.33333333</v>
       </c>
@@ -1261,7 +1379,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B40" s="12">
         <f t="shared" si="1"/>
         <v>107940000</v>
       </c>
@@ -1273,7 +1391,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="12">
         <f t="shared" si="1"/>
         <v>53970000</v>
       </c>
@@ -1336,4 +1454,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>57631527</v>
+      </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>74429</v>
+      </c>
+      <c r="G3">
+        <v>12922</v>
+      </c>
+      <c r="H3">
+        <v>87640</v>
+      </c>
+      <c r="I3">
+        <v>64321</v>
+      </c>
+      <c r="J3">
+        <v>908</v>
+      </c>
+      <c r="K3">
+        <v>90666</v>
+      </c>
+      <c r="L3">
+        <v>91762</v>
+      </c>
+      <c r="M3">
+        <f>L3/1000</f>
+        <v>91.762</v>
+      </c>
+      <c r="N3">
+        <f>M3/60</f>
+        <v>1.5293666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,33 +295,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,38 +655,38 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="15">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15">
         <v>4</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15">
         <v>5</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="10">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15">
         <v>6</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="10">
+      <c r="O1" s="16"/>
+      <c r="P1" s="15">
         <v>7</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="10">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15">
         <v>8</v>
       </c>
-      <c r="S1" s="11"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1114,7 +1121,7 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>10794000000</v>
       </c>
       <c r="C21">
@@ -1124,7 +1131,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f>$B$21/C22</f>
         <v>899500000</v>
       </c>
@@ -1139,7 +1146,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <f t="shared" ref="B23:B41" si="1">$B$21/C23</f>
         <v>771000000</v>
       </c>
@@ -1154,7 +1161,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f t="shared" si="1"/>
         <v>719600000</v>
       </c>
@@ -1169,7 +1176,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f t="shared" si="1"/>
         <v>674625000</v>
       </c>
@@ -1184,7 +1191,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f t="shared" si="1"/>
         <v>634941176.47058821</v>
       </c>
@@ -1199,7 +1206,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f t="shared" si="1"/>
         <v>599666666.66666663</v>
       </c>
@@ -1208,7 +1215,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>568105263.15789473</v>
       </c>
@@ -1217,7 +1224,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>539700000</v>
       </c>
@@ -1229,7 +1236,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>431760000</v>
       </c>
@@ -1238,7 +1245,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>359800000</v>
       </c>
@@ -1253,7 +1260,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <f t="shared" si="1"/>
         <v>269850000</v>
       </c>
@@ -1265,7 +1272,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>215880000</v>
       </c>
@@ -1295,7 +1302,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>179900000</v>
       </c>
@@ -1310,7 +1317,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>171333333.33333334</v>
       </c>
@@ -1331,7 +1338,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>166061538.46153846</v>
       </c>
@@ -1343,7 +1350,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>154200000</v>
       </c>
@@ -1355,7 +1362,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="10">
         <f t="shared" si="1"/>
         <v>134925000</v>
       </c>
@@ -1367,7 +1374,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <f t="shared" si="1"/>
         <v>119933333.33333333</v>
       </c>
@@ -1379,7 +1386,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <f t="shared" si="1"/>
         <v>107940000</v>
       </c>
@@ -1391,7 +1398,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <f t="shared" si="1"/>
         <v>53970000</v>
       </c>
@@ -1458,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,18 +1494,18 @@
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="18"/>
@@ -1515,75 +1522,87 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="12"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>57631527</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>130</v>
       </c>
-      <c r="F3">
-        <v>74429</v>
-      </c>
-      <c r="G3">
-        <v>12922</v>
-      </c>
-      <c r="H3">
-        <v>87640</v>
-      </c>
-      <c r="I3">
+      <c r="F4">
+        <v>76617</v>
+      </c>
+      <c r="G4">
+        <v>8122</v>
+      </c>
+      <c r="H4">
+        <v>84751</v>
+      </c>
+      <c r="I4">
         <v>64321</v>
       </c>
-      <c r="J3">
-        <v>908</v>
-      </c>
-      <c r="K3">
-        <v>90666</v>
-      </c>
-      <c r="L3">
-        <v>91762</v>
-      </c>
-      <c r="M3">
-        <f>L3/1000</f>
-        <v>91.762</v>
-      </c>
-      <c r="N3">
-        <f>M3/60</f>
-        <v>1.5293666666666668</v>
+      <c r="J4">
+        <v>1180</v>
+      </c>
+      <c r="K4" s="21">
+        <v>89071</v>
+      </c>
+      <c r="L4">
+        <v>90295</v>
+      </c>
+      <c r="M4">
+        <f>L4/1000</f>
+        <v>90.295000000000002</v>
+      </c>
+      <c r="N4">
+        <f>M4/60</f>
+        <v>1.5049166666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1594,5 +1613,6 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Размер файла</t>
   </si>
@@ -306,6 +306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,13 +329,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +638,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,38 +655,38 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="18">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18">
         <v>2</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18">
         <v>3</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15">
+      <c r="I1" s="19"/>
+      <c r="J1" s="18">
         <v>4</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15">
+      <c r="K1" s="19"/>
+      <c r="L1" s="18">
         <v>5</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="15">
+      <c r="M1" s="19"/>
+      <c r="N1" s="18">
         <v>6</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15">
+      <c r="O1" s="19"/>
+      <c r="P1" s="18">
         <v>7</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="15">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18">
         <v>8</v>
       </c>
-      <c r="S1" s="16"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1441,7 +1441,7 @@
         <v>200</v>
       </c>
       <c r="L45">
-        <v>383991</v>
+        <v>355078</v>
       </c>
       <c r="M45">
         <v>6331</v>
@@ -1465,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,23 +1497,23 @@
       <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1555,15 +1555,15 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1576,22 +1576,22 @@
         <v>130</v>
       </c>
       <c r="F4">
-        <v>76617</v>
+        <v>70295</v>
       </c>
       <c r="G4">
-        <v>8122</v>
+        <v>12008</v>
       </c>
       <c r="H4">
-        <v>84751</v>
+        <v>82301</v>
       </c>
       <c r="I4">
-        <v>64321</v>
+        <v>64159</v>
       </c>
       <c r="J4">
-        <v>1180</v>
-      </c>
-      <c r="K4" s="21">
-        <v>89071</v>
+        <v>1686</v>
+      </c>
+      <c r="K4" s="15">
+        <v>85982</v>
       </c>
       <c r="L4">
         <v>90295</v>
@@ -1603,6 +1603,40 @@
       <c r="N4">
         <f>M4/60</f>
         <v>1.5049166666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>28496</v>
+      </c>
+      <c r="G11">
+        <v>500514</v>
+      </c>
+      <c r="H11">
+        <v>528643</v>
+      </c>
+      <c r="I11">
+        <v>556813</v>
+      </c>
+      <c r="J11">
+        <v>60233</v>
+      </c>
+      <c r="K11" s="15">
+        <v>473876</v>
+      </c>
+      <c r="L11">
+        <v>534335</v>
+      </c>
+      <c r="M11">
+        <f>L11/1000</f>
+        <v>534.33500000000004</v>
+      </c>
+      <c r="N11">
+        <f>M11/60</f>
+        <v>8.9055833333333343</v>
       </c>
     </row>
   </sheetData>

--- a/Замеры.xlsx
+++ b/Замеры.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="compress" sheetId="4" r:id="rId1"/>
@@ -176,32 +176,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,23 +532,23 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -589,35 +589,35 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>103</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>9576</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>9160</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>11946</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>9660</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>12</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>10050</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="4">
         <f>K3/1000</f>
         <v>10.050000000000001</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <f>L3/60</f>
         <v>0.16750000000000001</v>
       </c>
@@ -629,32 +629,32 @@
       <c r="B4">
         <v>1030</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>85126</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>82095</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>119255</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>85397</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="7">
         <v>33</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="4">
         <v>88714</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="4">
         <f>K4/1000</f>
         <v>88.713999999999999</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <f>L4/60</f>
         <v>1.4785666666666666</v>
       </c>
@@ -687,11 +687,11 @@
       <c r="K5">
         <v>374674</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="4">
         <f>K5/1000</f>
         <v>374.67399999999998</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="4">
         <f>L5/60</f>
         <v>6.2445666666666666</v>
       </c>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,23 +743,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -806,28 +806,28 @@
       <c r="B3">
         <v>5812496</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>103</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>3386</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>105</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>3655</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>7985</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="5">
         <v>627</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>3376</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>4917</v>
       </c>
       <c r="M3">
@@ -849,22 +849,22 @@
       <c r="C4">
         <v>1030</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>65185</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>1216</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>68701</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>62107</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <v>1097</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>67793</v>
       </c>
       <c r="L4">
@@ -889,22 +889,22 @@
       <c r="C5">
         <v>3295</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>143556</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>100785</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>248595</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <v>547996</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <v>4302</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>247229</v>
       </c>
       <c r="L5">
